--- a/classfiers/greedy/welm/greedy_welm_tanh_results.xlsx
+++ b/classfiers/greedy/welm/greedy_welm_tanh_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5043478260869565</v>
+        <v>0.9019138755980862</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9785407725321889</v>
+        <v>0.9906103286384976</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2857142857142858</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6277292576419213</v>
+        <v>0.9905660377358491</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4610389610389611</v>
+        <v>0.4589371980676328</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5760869565217391</v>
+        <v>0.4783653846153846</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.9952830188679245</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5391304347826087</v>
+        <v>0.8341232227488152</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9879680331508066</v>
+        <v>0.9868145982815129</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05714285714285715</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5416666872144373</v>
+        <v>0.7327811437531536</v>
       </c>
     </row>
   </sheetData>
